--- a/case 3/storage_modifiers.xlsx
+++ b/case 3/storage_modifiers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>global variables in function garbage,-96</t>
+  </si>
+  <si>
+    <t>help command</t>
+  </si>
+  <si>
+    <t>argv[0] -h</t>
+  </si>
+  <si>
+    <t>enter given inputs</t>
   </si>
 </sst>
 </file>
@@ -460,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,12 +787,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>22</v>
       </c>
       <c r="E33" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/case 3/storage_modifiers.xlsx
+++ b/case 3/storage_modifiers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t xml:space="preserve">Test Case No  </t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>enter given inputs</t>
+  </si>
+  <si>
+    <t>mutable</t>
+  </si>
+  <si>
+    <t>var1=4   var2=7</t>
+  </si>
+  <si>
+    <t>var1=16    var2=7</t>
   </si>
 </sst>
 </file>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,6 +665,30 @@
       </c>
       <c r="F15" s="2"/>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>28</v>
@@ -795,23 +828,47 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C40" t="s">
         <v>33</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D40" t="s">
         <v>34</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E40" t="s">
         <v>34</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F40" t="s">
         <v>15</v>
       </c>
     </row>
